--- a/Ej4/Mediciones/tc_tp2_ej4_integrador.xlsx
+++ b/Ej4/Mediciones/tc_tp2_ej4_integrador.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="H(f)" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,6 @@
     <sheet name="H(f) int comp" sheetId="2" r:id="rId3"/>
     <sheet name="Z(f) comp" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -564,7 +561,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.0819335083114604E-2"/>
+          <c:y val="8.3750000000000005E-2"/>
+          <c:w val="0.89140288713910765"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1406,27 +1413,6 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>-39.097823887446566</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2074,44 +2060,35 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Z(f) comp'!$A$2:$A$18</c:f>
+              <c:f>'Z(f) comp'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="8">
                   <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2119,60 +2096,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Z(f) comp'!$E$2:$E$18</c:f>
+              <c:f>'Z(f) comp'!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>83.253385543675776</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>83.346804726953394</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>83.943104050462054</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83.346804726953394</c:v>
+                  <c:v>83.983131262487504</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83.943104050462054</c:v>
+                  <c:v>83.800304787310807</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>81.276520508331075</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>83.983131262487504</c:v>
+                  <c:v>77.380936697825462</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>83.800304787310807</c:v>
+                  <c:v>72.15358813664227</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>81.276520508331075</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>77.380936697825462</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>72.15358813664227</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>64.614560619041711</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2467,44 +2420,35 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Z(f) comp'!$A$2:$A$18</c:f>
+              <c:f>'Z(f) comp'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="8">
                   <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2512,35 +2456,35 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Z(f) comp'!$D$2:$D$18</c:f>
+              <c:f>'Z(f) comp'!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>73</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="8">
                   <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
@@ -6831,10 +6775,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>233362</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6863,13 +6807,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>138112</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>442912</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6896,124 +6840,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="H(f) deriv no comp"/>
-      <sheetName val="Z(f) no comp"/>
-      <sheetName val="H(f) deriv comp"/>
-      <sheetName val="Z(f) comp"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="4">
-          <cell r="A4">
-            <v>0.5</v>
-          </cell>
-          <cell r="E4">
-            <v>93.247151942586598</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>1</v>
-          </cell>
-          <cell r="E5">
-            <v>87.256742912843663</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>2</v>
-          </cell>
-          <cell r="E7">
-            <v>81.219072473418393</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>5</v>
-          </cell>
-          <cell r="E8">
-            <v>73.298622393918052</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>10</v>
-          </cell>
-          <cell r="E9">
-            <v>67.400124049085889</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>20</v>
-          </cell>
-          <cell r="E10">
-            <v>61.845685834359458</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>50</v>
-          </cell>
-          <cell r="E11">
-            <v>56.086600288254054</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>70</v>
-          </cell>
-          <cell r="E12">
-            <v>54.836158607368489</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>100</v>
-          </cell>
-          <cell r="E13">
-            <v>53.931892823504121</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="E14" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>200</v>
-          </cell>
-          <cell r="E15">
-            <v>53.333098631345699</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>500</v>
-          </cell>
-          <cell r="E16">
-            <v>55.456968871514583</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7316,7 +7142,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7630,12 +7456,12 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7652,10 +7478,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5000</v>
       </c>
@@ -7669,11 +7495,15 @@
         <v>78</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E2:E17" si="0">20*LOG(B3*$H$19/C3)</f>
+        <f>20*LOG(B3*$H$19/C3)</f>
         <v>64.521992535400287</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1">
+        <f>B3*$H$19</f>
+        <v>6160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2000</v>
       </c>
@@ -7687,11 +7517,15 @@
         <v>73</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E4:E17" si="0">20*LOG(B4*$H$19/C4)</f>
         <v>72.113282311935748</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G15" si="1">B4*$H$19</f>
+        <v>8712</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.1</v>
       </c>
@@ -7712,8 +7546,12 @@
         <f>B5*$H$19/C5</f>
         <v>14543.511450381679</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>1905.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.2</v>
       </c>
@@ -7731,11 +7569,15 @@
         <v>83.061389821973762</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" ref="F6:F17" si="1">B6*$H$19/C6</f>
+        <f t="shared" ref="F6:F17" si="2">B6*$H$19/C6</f>
         <v>14225.563909774435</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>3784</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -7753,11 +7595,15 @@
         <v>83.246202956672022</v>
       </c>
       <c r="F7" s="2">
+        <f t="shared" si="2"/>
+        <v>14531.490015360983</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="1"/>
-        <v>14531.490015360983</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -7775,11 +7621,15 @@
         <v>83.53101173896421</v>
       </c>
       <c r="F8" s="2">
+        <f t="shared" si="2"/>
+        <v>15015.873015873016</v>
+      </c>
+      <c r="G8" s="1">
         <f t="shared" si="1"/>
-        <v>15015.873015873016</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28380</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20</v>
       </c>
@@ -7797,11 +7647,15 @@
         <v>84.154482138494998</v>
       </c>
       <c r="F9" s="2">
+        <f t="shared" si="2"/>
+        <v>16133.333333333334</v>
+      </c>
+      <c r="G9" s="1">
         <f t="shared" si="1"/>
-        <v>16133.333333333334</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26620</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1000</v>
       </c>
@@ -7819,11 +7673,15 @@
         <v>77.380936697825462</v>
       </c>
       <c r="F10" s="2">
+        <f t="shared" si="2"/>
+        <v>7396.8503937007863</v>
+      </c>
+      <c r="G10" s="1">
         <f t="shared" si="1"/>
-        <v>7396.8503937007863</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9393.9999999999982</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7841,11 +7699,15 @@
         <v>84.101999261972026</v>
       </c>
       <c r="F11" s="2">
+        <f t="shared" si="2"/>
+        <v>16036.144578313253</v>
+      </c>
+      <c r="G11" s="1">
         <f t="shared" si="1"/>
-        <v>16036.144578313253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26620</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>50</v>
       </c>
@@ -7863,11 +7725,15 @@
         <v>84.101999261972026</v>
       </c>
       <c r="F12" s="2">
+        <f t="shared" si="2"/>
+        <v>16036.144578313253</v>
+      </c>
+      <c r="G12" s="1">
         <f t="shared" si="1"/>
-        <v>16036.144578313253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26620</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>100</v>
       </c>
@@ -7885,11 +7751,15 @@
         <v>84.017916137665623</v>
       </c>
       <c r="F13" s="2">
+        <f t="shared" si="2"/>
+        <v>15881.656804733728</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>15881.656804733728</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26840</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>200</v>
       </c>
@@ -7907,11 +7777,15 @@
         <v>83.323312577440234</v>
       </c>
       <c r="F14" s="2">
+        <f t="shared" si="2"/>
+        <v>14661.068702290077</v>
+      </c>
+      <c r="G14" s="1">
         <f t="shared" si="1"/>
-        <v>14661.068702290077</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>500</v>
       </c>
@@ -7929,17 +7803,21 @@
         <v>81.214409067603853</v>
       </c>
       <c r="F15" s="2">
+        <f t="shared" si="2"/>
+        <v>11500.59880239521</v>
+      </c>
+      <c r="G15" s="1">
         <f t="shared" si="1"/>
-        <v>11500.59880239521</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E16" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F16" s="2" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7949,7 +7827,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F17" s="2" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7973,10 +7851,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8030,7 +7908,7 @@
         <v>174</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E20" si="0">20*LOG(C3/B3)</f>
+        <f t="shared" ref="E3:E13" si="0">20*LOG(C3/B3)</f>
         <v>5.169678373783066</v>
       </c>
     </row>
@@ -8212,48 +8090,6 @@
       <c r="E13">
         <f t="shared" si="0"/>
         <v>-39.097823887446566</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -8267,15 +8103,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B13:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8292,7 +8128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -8306,289 +8142,426 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E18" si="0">20*LOG(B2*$H$20/C2)</f>
+        <f t="shared" ref="E2:E10" si="0">20*LOG(B2*$H$16/C2)</f>
         <v>83.253385543675776</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F5" si="1">B2*$H$20/C2</f>
+        <f t="shared" ref="F2:F10" si="1">B2*$H$16/C2</f>
         <v>14543.511450381679</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.2</v>
-      </c>
-      <c r="E3" s="2" t="e">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="C3">
+        <v>1.29</v>
+      </c>
+      <c r="D3">
+        <v>-3</v>
+      </c>
+      <c r="E3" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F3" s="2" t="e">
+        <v>83.346804726953394</v>
+      </c>
+      <c r="F3" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14700.775193798449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="2" t="e">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>8.66</v>
+      </c>
+      <c r="C4">
+        <v>1.21</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F4" s="2" t="e">
+        <v>83.943104050462054</v>
+      </c>
+      <c r="F4" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15745.454545454546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B5">
-        <v>8.6199999999999992</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="C5">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="D5">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="2">
-        <f>20*LOG(B5*$H$20/C5)</f>
-        <v>83.346804726953394</v>
+        <f t="shared" si="0"/>
+        <v>83.983131262487504</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="1"/>
-        <v>14700.775193798449</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15818.181818181818</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="B6">
-        <v>8.66</v>
+        <v>8.73</v>
       </c>
       <c r="C6">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>83.943104050462054</v>
+        <v>83.800304787310807</v>
       </c>
       <c r="F6" s="2">
-        <f>B6*$H$20/C6</f>
-        <v>15745.454545454546</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>15488.709677419354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2" t="e">
+        <v>500</v>
+      </c>
+      <c r="B7">
+        <v>8.74</v>
+      </c>
+      <c r="C7">
+        <v>1.66</v>
+      </c>
+      <c r="D7">
+        <v>44</v>
+      </c>
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="2" t="e">
-        <f t="shared" ref="F7:F18" si="2">B7*$H$20/C7</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>81.276520508331075</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>11583.132530120483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="B8">
-        <v>8.6999999999999993</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="C8">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>83.983131262487504</v>
+        <v>77.380936697825462</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="2"/>
-        <v>15818.181818181818</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>7396.8503937007863</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="B9">
-        <v>8.73</v>
+        <v>3.96</v>
       </c>
       <c r="C9">
-        <v>1.24</v>
+        <v>2.15</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>83.800304787310807</v>
+        <v>72.15358813664227</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="2"/>
-        <v>15488.709677419354</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E10" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>500</v>
-      </c>
-      <c r="B11">
-        <v>8.74</v>
-      </c>
-      <c r="C11">
-        <v>1.66</v>
-      </c>
-      <c r="D11">
-        <v>44</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>81.276520508331075</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="2"/>
-        <v>11583.132530120483</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1000</v>
-      </c>
-      <c r="B12">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="C12">
-        <v>1.27</v>
-      </c>
-      <c r="D12">
-        <v>60</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>77.380936697825462</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" si="2"/>
-        <v>7396.8503937007863</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2000</v>
-      </c>
-      <c r="B13">
-        <v>3.96</v>
-      </c>
-      <c r="C13">
-        <v>2.15</v>
-      </c>
-      <c r="D13">
-        <v>73</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>72.15358813664227</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4052.0930232558139</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>5000</v>
       </c>
-      <c r="B14">
+      <c r="B10">
         <v>2.83</v>
       </c>
-      <c r="C14">
+      <c r="C10">
         <v>3.66</v>
       </c>
-      <c r="D14">
+      <c r="D10">
         <v>78</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>64.614560619041711</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>1701.0928961748634</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <f>C2/$H$16</f>
+        <v>5.954545454545455E-4</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <f t="shared" ref="B14:B48" si="2">C3/$H$16</f>
+        <v>5.8636363636363638E-4</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
         <f t="shared" si="2"/>
-        <v>1701.0928961748634</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E15" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="2" t="e">
+        <v>5.5000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="2" t="e">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E17" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="2" t="e">
+        <v>5.636363636363636E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E18" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18" s="2" t="e">
+        <v>7.5454545454545446E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="1">
-        <v>2200</v>
+        <v>5.7727272727272727E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <f t="shared" si="2"/>
+        <v>9.7727272727272723E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6636363636363637E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A14">
+  <sortState ref="A2:A10">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Ej4/Mediciones/tc_tp2_ej4_integrador.xlsx
+++ b/Ej4/Mediciones/tc_tp2_ej4_integrador.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="H(f)" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>f(kHz)</t>
   </si>
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>r</t>
+  </si>
+  <si>
+    <t>entrada al circuito</t>
+  </si>
+  <si>
+    <t>entrada a la resistencia</t>
+  </si>
+  <si>
+    <t>m=1-2</t>
+  </si>
+  <si>
+    <t>tension en la resistencia</t>
   </si>
 </sst>
 </file>
@@ -505,765 +517,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>magnitud</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.0819335083114604E-2"/>
-          <c:y val="8.3750000000000005E-2"/>
-          <c:w val="0.89140288713910765"/>
-          <c:h val="0.72088764946048411"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Z(f)'!$A$2:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="1">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Z(f)'!$E$2:$E$21</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="1">
-                  <c:v>64.521992535400287</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>72.113282311935748</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>83.253385543675776</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>83.061389821973762</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>83.246202956672022</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>83.53101173896421</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>84.154482138494998</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>77.380936697825462</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>84.101999261972026</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>84.101999261972026</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>84.017916137665623</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>83.323312577440234</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>81.214409067603853</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6522-43B4-B825-675E8F30A90E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="376310688"/>
-        <c:axId val="376313968"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="376310688"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="376313968"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="376313968"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="376310688"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Z(f)'!$A$2:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="1">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Z(f)'!$D$2:$D$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="1">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1C1E-4C85-BAF0-D0E182AA6C6C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="490982888"/>
-        <c:axId val="490983544"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="490982888"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="490983544"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="490983544"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="490982888"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1605,7 +858,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1958,7 +1211,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2318,7 +1571,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2878,86 +2131,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5023,1038 +4196,6 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6612,83 +4753,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E132AEE-4A33-4D87-9792-1CC6AC68AE88}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B4DAA53-D37C-4EF9-92AF-4A43F659EA02}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6765,7 +4829,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7141,8 +5205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7453,10 +5517,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7482,47 +5546,17 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>5000</v>
-      </c>
-      <c r="B3">
-        <v>2.8</v>
-      </c>
-      <c r="C3">
-        <v>3.66</v>
-      </c>
-      <c r="D3">
-        <v>78</v>
-      </c>
-      <c r="E3" s="1">
-        <f>20*LOG(B3*$H$19/C3)</f>
-        <v>64.521992535400287</v>
-      </c>
+      <c r="E3" s="1"/>
       <c r="G3" s="1">
         <f>B3*$H$19</f>
-        <v>6160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2000</v>
-      </c>
-      <c r="B4">
-        <v>3.96</v>
-      </c>
-      <c r="C4">
-        <v>2.16</v>
-      </c>
-      <c r="D4">
-        <v>73</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" ref="E4:E17" si="0">20*LOG(B4*$H$19/C4)</f>
-        <v>72.113282311935748</v>
-      </c>
+      <c r="E4" s="1"/>
       <c r="G4" s="1">
-        <f t="shared" ref="G4:G15" si="1">B4*$H$19</f>
-        <v>8712</v>
+        <f t="shared" ref="G4:G15" si="0">B4*$H$19</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -7539,7 +5573,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E4:E17" si="1">20*LOG(B5*$H$19/C5)</f>
         <v>83.253385543675776</v>
       </c>
       <c r="F5" s="2">
@@ -7547,7 +5581,7 @@
         <v>14543.511450381679</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1905.2</v>
       </c>
     </row>
@@ -7565,7 +5599,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>83.061389821973762</v>
       </c>
       <c r="F6" s="2">
@@ -7573,7 +5607,7 @@
         <v>14225.563909774435</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3784</v>
       </c>
     </row>
@@ -7591,7 +5625,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>83.246202956672022</v>
       </c>
       <c r="F7" s="2">
@@ -7599,7 +5633,7 @@
         <v>14531.490015360983</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9460</v>
       </c>
     </row>
@@ -7617,7 +5651,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>83.53101173896421</v>
       </c>
       <c r="F8" s="2">
@@ -7625,7 +5659,7 @@
         <v>15015.873015873016</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>28380</v>
       </c>
     </row>
@@ -7643,7 +5677,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>84.154482138494998</v>
       </c>
       <c r="F9" s="2">
@@ -7651,35 +5685,14 @@
         <v>16133.333333333334</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26620</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1000</v>
-      </c>
-      <c r="B10">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="C10">
-        <v>1.27</v>
-      </c>
-      <c r="D10">
-        <v>60</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>77.380936697825462</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="2"/>
-        <v>7396.8503937007863</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="1"/>
-        <v>9393.9999999999982</v>
-      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -7695,7 +5708,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>84.101999261972026</v>
       </c>
       <c r="F11" s="2">
@@ -7703,7 +5716,7 @@
         <v>16036.144578313253</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26620</v>
       </c>
     </row>
@@ -7721,7 +5734,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>84.101999261972026</v>
       </c>
       <c r="F12" s="2">
@@ -7729,7 +5742,7 @@
         <v>16036.144578313253</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26620</v>
       </c>
     </row>
@@ -7747,7 +5760,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>84.017916137665623</v>
       </c>
       <c r="F13" s="2">
@@ -7755,7 +5768,7 @@
         <v>15881.656804733728</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26840</v>
       </c>
     </row>
@@ -7773,7 +5786,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>83.323312577440234</v>
       </c>
       <c r="F14" s="2">
@@ -7781,7 +5794,7 @@
         <v>14661.068702290077</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19206</v>
       </c>
     </row>
@@ -7799,7 +5812,7 @@
         <v>44</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>81.214409067603853</v>
       </c>
       <c r="F15" s="2">
@@ -7807,13 +5820,13 @@
         <v>11500.59880239521</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19206</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E16" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F16" s="2" t="e">
@@ -7821,17 +5834,37 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
       <c r="E17" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="F17" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
       <c r="G19" t="s">
         <v>10</v>
       </c>
@@ -7839,13 +5872,291 @@
         <v>2200</v>
       </c>
     </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1">
+        <v>9720</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2">
+        <f>B24/C25*$D$20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.01</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="C25">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>-4</v>
+      </c>
+      <c r="E25" s="2">
+        <f>20*LOG(B25/C25*$D$20)</f>
+        <v>82.987987478701783</v>
+      </c>
+      <c r="F25" s="2">
+        <f>B25/C25*$D$20</f>
+        <v>14105.853658536585</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.02</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="e">
+        <f t="shared" ref="E26:E38" si="3">20*LOG(B26/C26*$D$20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="2" t="e">
+        <f t="shared" ref="F26:F38" si="4">B26/C26*$D$20</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.05</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.1</v>
+      </c>
+      <c r="B28">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="C28">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="3"/>
+        <v>82.809403597126519</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="4"/>
+        <v>13818.795180722891</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.2</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F29" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.5</v>
+      </c>
+      <c r="B30">
+        <v>0.59</v>
+      </c>
+      <c r="C30">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="3"/>
+        <v>82.999844859824492</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="4"/>
+        <v>14125.123152709359</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="C31">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="3"/>
+        <v>82.993186731646205</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="4"/>
+        <v>14114.299754299755</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>1.2</v>
+      </c>
+      <c r="C32">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="3"/>
+        <v>83.373420549524454</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="4"/>
+        <v>14745.891276864728</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>1.19</v>
+      </c>
+      <c r="C33">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="3"/>
+        <v>83.180777160692841</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="4"/>
+        <v>14422.443890274313</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>1.19</v>
+      </c>
+      <c r="C34">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="3"/>
+        <v>83.15914355140707</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="4"/>
+        <v>14386.567164179103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>20</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F35" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>100</v>
+      </c>
+      <c r="B36">
+        <v>1.19</v>
+      </c>
+      <c r="C36">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="D36" s="2">
+        <v>10</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="3"/>
+        <v>82.945720292433805</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="4"/>
+        <v>14037.378640776698</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>200</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F37" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>500</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:A15">
-    <sortCondition ref="A2"/>
+  <sortState ref="A24:A38">
+    <sortCondition ref="A24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8105,8 +6416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B13:B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
